--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -13,8 +13,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>yineng</author>
+  </authors>
+  <commentList>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>yineng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+#[primary=true]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+  <si>
+    <t>票券编号枚举</t>
+  </si>
+  <si>
+    <t>银票编号</t>
+  </si>
+  <si>
+    <t>金票编号</t>
+  </si>
+  <si>
+    <t>彩票编号</t>
+  </si>
   <si>
     <t>e$TicketType</t>
   </si>
@@ -26,6 +70,120 @@
   </si>
   <si>
     <t>DiamondTicket</t>
+  </si>
+  <si>
+    <t>抽奖所需票券数量枚举</t>
+  </si>
+  <si>
+    <t>银宝箱</t>
+  </si>
+  <si>
+    <t>金宝箱</t>
+  </si>
+  <si>
+    <t>彩宝箱</t>
+  </si>
+  <si>
+    <t>银转盘</t>
+  </si>
+  <si>
+    <t>金转盘</t>
+  </si>
+  <si>
+    <t>彩转盘</t>
+  </si>
+  <si>
+    <t>e$LotteryTicketNum</t>
+  </si>
+  <si>
+    <t>SilverChest</t>
+  </si>
+  <si>
+    <t>GoldChest</t>
+  </si>
+  <si>
+    <t>DiamondChest</t>
+  </si>
+  <si>
+    <t>SilverTurntable</t>
+  </si>
+  <si>
+    <t>GoldTurntable</t>
+  </si>
+  <si>
+    <t>DiamondTurntable</t>
+  </si>
+  <si>
+    <t>票券合成需要数量枚举</t>
+  </si>
+  <si>
+    <t>银合成金票</t>
+  </si>
+  <si>
+    <t>金合成彩票</t>
+  </si>
+  <si>
+    <t>e$CompoundTicketNum</t>
+  </si>
+  <si>
+    <t>SilverToGold</t>
+  </si>
+  <si>
+    <t>GoldToDiamond</t>
+  </si>
+  <si>
+    <t>奖品配置表</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>奖品名称(简)</t>
+  </si>
+  <si>
+    <t>奖品名称(繁)</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>$PrizeCfg</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>zh_hans</t>
+  </si>
+  <si>
+    <t>zh_hant</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>u32</t>
+  </si>
+  <si>
+    <t>初级锄头</t>
+  </si>
+  <si>
+    <t>初級鋤頭</t>
+  </si>
+  <si>
+    <t>把</t>
+  </si>
+  <si>
+    <t>中级锄头</t>
+  </si>
+  <si>
+    <t>中級鋤頭</t>
+  </si>
+  <si>
+    <t>高级锄头</t>
+  </si>
+  <si>
+    <t>高級鋤頭</t>
   </si>
 </sst>
 </file>
@@ -34,11 +192,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,66 +207,117 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,8 +339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,59 +349,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,25 +364,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,157 +550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +595,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,6 +631,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,24 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,21 +673,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,142 +693,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -996,55 +1202,273 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>7001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="6">
         <v>7002</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="6">
         <v>7003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9">
+        <v>2001</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9">
+        <v>2002</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9">
+        <v>2003</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -19,7 +19,7 @@
     <author>yineng</author>
   </authors>
   <commentList>
-    <comment ref="B20" authorId="0">
+    <comment ref="B32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>票券编号枚举</t>
   </si>
@@ -130,6 +130,60 @@
   </si>
   <si>
     <t>GoldToDiamond</t>
+  </si>
+  <si>
+    <t>抽奖活动编号枚举</t>
+  </si>
+  <si>
+    <t>e$ActivityNum</t>
+  </si>
+  <si>
+    <t>SilverChestNum</t>
+  </si>
+  <si>
+    <t>GoldChestNum</t>
+  </si>
+  <si>
+    <t>DiamondChestNum</t>
+  </si>
+  <si>
+    <t>SilverTurntableNum</t>
+  </si>
+  <si>
+    <t>GoldTurntableNum</t>
+  </si>
+  <si>
+    <t>DiamondTurntableNum</t>
+  </si>
+  <si>
+    <t>中奖记录源枚举</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>挖矿</t>
+  </si>
+  <si>
+    <t>转盘</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>e$AwardSrcNum</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>rotary</t>
+  </si>
+  <si>
+    <t>treasurebox</t>
   </si>
   <si>
     <t>奖品配置表</t>
@@ -191,12 +245,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +266,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -219,6 +278,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,7 +293,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,85 +345,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,21 +392,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,55 +423,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,43 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,31 +603,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,60 +640,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +650,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,81 +746,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,139 +770,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,25 +919,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,267 +1285,389 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:4">
+      <c r="B4" s="4">
         <v>7001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>7002</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>7003</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:7">
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:3">
+      <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="F20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:7">
+      <c r="B22" s="7">
+        <v>1010</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1011</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1012</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1007</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1008</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9">
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="11">
         <v>2001</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9">
+      <c r="C34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="11">
         <v>2002</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9">
+      <c r="C35" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="11">
         <v>2003</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>41</v>
+      <c r="C36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -13,40 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>yineng</author>
-  </authors>
-  <commentList>
-    <comment ref="B32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>yineng:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-#[primary=true]</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>票券编号枚举</t>
   </si>
@@ -184,60 +152,6 @@
   </si>
   <si>
     <t>treasurebox</t>
-  </si>
-  <si>
-    <t>奖品配置表</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>奖品名称(简)</t>
-  </si>
-  <si>
-    <t>奖品名称(繁)</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>$PrizeCfg</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>zh_hans</t>
-  </si>
-  <si>
-    <t>zh_hant</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>u32</t>
-  </si>
-  <si>
-    <t>初级锄头</t>
-  </si>
-  <si>
-    <t>初級鋤頭</t>
-  </si>
-  <si>
-    <t>把</t>
-  </si>
-  <si>
-    <t>中级锄头</t>
-  </si>
-  <si>
-    <t>中級鋤頭</t>
-  </si>
-  <si>
-    <t>高级锄头</t>
-  </si>
-  <si>
-    <t>高級鋤頭</t>
   </si>
 </sst>
 </file>
@@ -246,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -278,29 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,17 +213,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,20 +236,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -390,31 +266,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,7 +367,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,19 +487,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,157 +535,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,23 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,34 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +590,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,9 +620,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,149 +666,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,9 +818,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,9 +837,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,8 +1189,8 @@
   <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1318,33 +1220,33 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:4">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>7001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>7002</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>7003</v>
       </c>
     </row>
@@ -1372,16 +1274,16 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1395,28 +1297,28 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:7">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1432,28 +1334,28 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:3">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1481,22 +1383,22 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1504,30 +1406,30 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="2:7">
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>1010</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>1011</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>1012</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>1007</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>1008</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>1009</v>
       </c>
     </row>
@@ -1549,131 +1451,91 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>1</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="11">
-        <v>2001</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="11">
-        <v>2002</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>票券编号枚举</t>
   </si>
@@ -40,7 +40,22 @@
     <t>DiamondTicket</t>
   </si>
   <si>
-    <t>抽奖所需票券数量枚举</t>
+    <t>活动编号枚举</t>
+  </si>
+  <si>
+    <t>银合成金</t>
+  </si>
+  <si>
+    <t>金合成彩</t>
+  </si>
+  <si>
+    <t>银转盘</t>
+  </si>
+  <si>
+    <t>金转盘</t>
+  </si>
+  <si>
+    <t>彩转盘</t>
   </si>
   <si>
     <t>银宝箱</t>
@@ -52,16 +67,22 @@
     <t>彩宝箱</t>
   </si>
   <si>
-    <t>银转盘</t>
-  </si>
-  <si>
-    <t>金转盘</t>
-  </si>
-  <si>
-    <t>彩转盘</t>
-  </si>
-  <si>
-    <t>e$LotteryTicketNum</t>
+    <t>e$ActivityType</t>
+  </si>
+  <si>
+    <t>ComposeGold</t>
+  </si>
+  <si>
+    <t>ComposeDiamond</t>
+  </si>
+  <si>
+    <t>SilverTurntable</t>
+  </si>
+  <si>
+    <t>GoldTurntable</t>
+  </si>
+  <si>
+    <t>DiamondTurntable</t>
   </si>
   <si>
     <t>SilverChest</t>
@@ -71,57 +92,6 @@
   </si>
   <si>
     <t>DiamondChest</t>
-  </si>
-  <si>
-    <t>SilverTurntable</t>
-  </si>
-  <si>
-    <t>GoldTurntable</t>
-  </si>
-  <si>
-    <t>DiamondTurntable</t>
-  </si>
-  <si>
-    <t>票券合成需要数量枚举</t>
-  </si>
-  <si>
-    <t>银合成金票</t>
-  </si>
-  <si>
-    <t>金合成彩票</t>
-  </si>
-  <si>
-    <t>e$CompoundTicketNum</t>
-  </si>
-  <si>
-    <t>SilverToGold</t>
-  </si>
-  <si>
-    <t>GoldToDiamond</t>
-  </si>
-  <si>
-    <t>抽奖活动编号枚举</t>
-  </si>
-  <si>
-    <t>e$ActivityNum</t>
-  </si>
-  <si>
-    <t>SilverChestNum</t>
-  </si>
-  <si>
-    <t>GoldChestNum</t>
-  </si>
-  <si>
-    <t>DiamondChestNum</t>
-  </si>
-  <si>
-    <t>SilverTurntableNum</t>
-  </si>
-  <si>
-    <t>GoldTurntableNum</t>
-  </si>
-  <si>
-    <t>DiamondTurntableNum</t>
   </si>
   <si>
     <t>中奖记录源枚举</t>
@@ -192,7 +162,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +190,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -221,7 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,8 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,30 +253,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,7 +284,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,24 +297,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,18 +313,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,19 +325,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +421,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,19 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,121 +487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,8 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,8 +531,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +569,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -603,28 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,21 +616,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,137 +636,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,16 +782,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1187,13 +1139,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="2" customWidth="1"/>
@@ -1202,7 +1154,9 @@
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="21.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1250,246 +1204,154 @@
         <v>7003</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:7">
-      <c r="B10" s="4">
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="6:6">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1007</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1008</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1009</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1010</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1011</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:7">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="2:3">
-      <c r="B16" s="5">
+      <c r="E17" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="2:7">
-      <c r="B22" s="6">
-        <v>1010</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1011</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1012</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1007</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1008</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="7">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2</v>
-      </c>
-      <c r="E28" s="8">
-        <v>3</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" s="1" customFormat="1"/>
     <row r="30" spans="3:3">
-      <c r="C30" s="9"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31"/>

--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -159,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -185,14 +185,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,29 +244,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,9 +275,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,68 +327,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -367,37 +367,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,145 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,15 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -590,15 +581,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,11 +602,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +638,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,145 +666,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>票券编号枚举</t>
   </si>
@@ -67,6 +67,9 @@
     <t>彩宝箱</t>
   </si>
   <si>
+    <t>新人奖励</t>
+  </si>
+  <si>
     <t>e$ActivityType</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>DiamondChest</t>
+  </si>
+  <si>
+    <t>NewUserWelfare</t>
   </si>
   <si>
     <t>中奖记录源枚举</t>
@@ -130,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -169,9 +175,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,56 +251,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,55 +281,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,39 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,11 +551,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,17 +596,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,145 +630,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1156,7 +1162,8 @@
     <col min="7" max="7" width="22.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="16" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1204,7 +1211,7 @@
         <v>7003</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1232,40 +1239,46 @@
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="6:6">
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
         <v>1005</v>
@@ -1291,46 +1304,46 @@
       <c r="I11" s="4">
         <v>1012</v>
       </c>
+      <c r="J11" s="4">
+        <v>6001</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:7">
       <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>

--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="27780" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>票券编号枚举</t>
   </si>
@@ -43,28 +43,28 @@
     <t>活动编号枚举</t>
   </si>
   <si>
-    <t>银合成金</t>
-  </si>
-  <si>
-    <t>金合成彩</t>
-  </si>
-  <si>
-    <t>银转盘</t>
-  </si>
-  <si>
-    <t>金转盘</t>
-  </si>
-  <si>
-    <t>彩转盘</t>
-  </si>
-  <si>
-    <t>银宝箱</t>
-  </si>
-  <si>
-    <t>金宝箱</t>
-  </si>
-  <si>
-    <t>彩宝箱</t>
+    <t>银券合成金</t>
+  </si>
+  <si>
+    <t>金券合成彩</t>
+  </si>
+  <si>
+    <t>初级转盘</t>
+  </si>
+  <si>
+    <t>中级转盘</t>
+  </si>
+  <si>
+    <t>高级转盘</t>
+  </si>
+  <si>
+    <t>初级宝箱</t>
+  </si>
+  <si>
+    <t>中级宝箱</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
   </si>
   <si>
     <t>新人奖励</t>
@@ -79,22 +79,22 @@
     <t>ComposeDiamond</t>
   </si>
   <si>
-    <t>SilverTurntable</t>
-  </si>
-  <si>
-    <t>GoldTurntable</t>
-  </si>
-  <si>
-    <t>DiamondTurntable</t>
-  </si>
-  <si>
-    <t>SilverChest</t>
-  </si>
-  <si>
-    <t>GoldChest</t>
-  </si>
-  <si>
-    <t>DiamondChest</t>
+    <t>PrimaryTurntable</t>
+  </si>
+  <si>
+    <t>MiddleTurntable</t>
+  </si>
+  <si>
+    <t>AdvancedTurntable</t>
+  </si>
+  <si>
+    <t>PrimaryChest</t>
+  </si>
+  <si>
+    <t>MiddleChest</t>
+  </si>
+  <si>
+    <t>AdvancedChest</t>
   </si>
   <si>
     <t>NewUserWelfare</t>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>treasurebox</t>
+  </si>
+  <si>
+    <t>物品编号枚举</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>e$ItemType</t>
   </si>
 </sst>
 </file>
@@ -135,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,19 +179,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -188,9 +230,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,37 +264,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,31 +277,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,24 +300,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +349,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,180 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +540,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,60 +623,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -630,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1166,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1157,7 +1175,7 @@
     <col min="2" max="2" width="21.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.875" style="2" customWidth="1"/>
@@ -1362,7 +1380,56 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="22" s="1" customFormat="1"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3">
+        <v>3001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5001</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6001</v>
+      </c>
+    </row>
     <row r="30" spans="3:3">
       <c r="C30" s="7"/>
     </row>

--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27780" windowHeight="11505"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,31 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
-  <si>
-    <t>票券编号枚举</t>
-  </si>
-  <si>
-    <t>银票编号</t>
-  </si>
-  <si>
-    <t>金票编号</t>
-  </si>
-  <si>
-    <t>彩票编号</t>
-  </si>
-  <si>
-    <t>e$TicketType</t>
-  </si>
-  <si>
-    <t>SilverTicket</t>
-  </si>
-  <si>
-    <t>GoldTicket</t>
-  </si>
-  <si>
-    <t>DiamondTicket</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>活动编号枚举</t>
   </si>
@@ -153,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -186,6 +162,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,15 +208,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,93 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,205 +307,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,16 +519,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -583,21 +568,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -608,6 +578,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,15 +611,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -648,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,137 +636,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,13 +776,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -884,7 +863,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1163,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1184,33 +1163,11 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
@@ -1219,78 +1176,72 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:4">
-      <c r="B4" s="3">
-        <v>7001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7002</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7003</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="6:6">
@@ -1299,28 +1250,28 @@
     <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
-        <v>1005</v>
+        <v>100501</v>
       </c>
       <c r="C11" s="4">
-        <v>1006</v>
+        <v>100601</v>
       </c>
       <c r="D11" s="4">
-        <v>1007</v>
+        <v>100701</v>
       </c>
       <c r="E11" s="4">
-        <v>1008</v>
+        <v>100801</v>
       </c>
       <c r="F11" s="4">
-        <v>1009</v>
+        <v>100901</v>
       </c>
       <c r="G11" s="4">
-        <v>1010</v>
+        <v>101001</v>
       </c>
       <c r="H11" s="4">
-        <v>1011</v>
+        <v>101101</v>
       </c>
       <c r="I11" s="4">
-        <v>1012</v>
+        <v>101201</v>
       </c>
       <c r="J11" s="4">
         <v>6001</v>
@@ -1328,36 +1279,36 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:7">
@@ -1382,56 +1333,56 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
-      <c r="B23" s="3">
+      <c r="B23" s="7">
         <v>3001</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>4001</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>5001</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="7">
         <v>6001</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="7"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31"/>

--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -130,9 +130,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -155,24 +155,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,23 +214,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,31 +238,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,58 +297,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -325,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,24 +521,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,32 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -616,6 +601,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,137 +636,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +774,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1145,7 +1142,7 @@
   <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1175,11 +1172,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
+    <row r="4" s="1" customFormat="1"/>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>0</v>
@@ -1249,32 +1242,32 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1"/>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>100501</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>100601</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>100701</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>100801</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>100901</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>101001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>101101</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>101201</v>
       </c>
-      <c r="J11" s="4">
-        <v>6001</v>
+      <c r="J11" s="3">
+        <v>600101</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1318,16 +1311,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1368,21 +1361,21 @@
     <row r="22" s="1" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>3001</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>4001</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>5001</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>6001</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31"/>

--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>活动编号枚举</t>
   </si>
@@ -91,6 +91,15 @@
     <t>宝箱</t>
   </si>
   <si>
+    <t>兑换</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>邀请</t>
+  </si>
+  <si>
     <t>e$AwardSrcNum</t>
   </si>
   <si>
@@ -104,6 +113,15 @@
   </si>
   <si>
     <t>treasurebox</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>invite</t>
   </si>
   <si>
     <t>物品编号枚举</t>
@@ -129,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -154,6 +172,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,47 +240,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,87 +293,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -325,37 +343,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,37 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,49 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,36 +524,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,13 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,31 +571,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +608,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -602,17 +626,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1160,7 @@
   <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1270,7 +1288,7 @@
         <v>600101</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1286,22 +1304,40 @@
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:7">
@@ -1309,7 +1345,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="4">
         <v>0</v>
@@ -1323,39 +1359,48 @@
       <c r="E17" s="5">
         <v>3</v>
       </c>
+      <c r="F17" s="5">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1"/>

--- a/src/earn/client/app/xls/dataEnum.xlsx
+++ b/src/earn/client/app/xls/dataEnum.xlsx
@@ -139,7 +139,7 @@
     <t>KT</t>
   </si>
   <si>
-    <t>e$ItemType</t>
+    <t>e$CoinType</t>
   </si>
 </sst>
 </file>
@@ -147,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -172,14 +172,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -187,15 +262,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,51 +288,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,49 +302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,43 +343,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,139 +481,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +548,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +591,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -591,28 +617,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,15 +634,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,7 +1160,7 @@
   <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
